--- a/biology/Zoologie/Eudimorphodon/Eudimorphodon.xlsx
+++ b/biology/Zoologie/Eudimorphodon/Eudimorphodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eudimorphodon est un genre de ptérosaures ayant vécu au Trias supérieur (étage Norien)[1].
-Ils ont dû être abondants, on en a découvert plusieurs fossiles. Le premier fossile a été découvert en Italie par Mario Pandolfi en 1973, plus tard un fossile complet a été découvert en Autriche, une mâchoire au Texas, des dents, attribués à ce genre, au Luxembourg. Ce sont les plus anciens fossiles de ptérosaures connus en 2009[2]. L'espèce a disparu au début de l'extinction du Trias-Jurassique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eudimorphodon est un genre de ptérosaures ayant vécu au Trias supérieur (étage Norien).
+Ils ont dû être abondants, on en a découvert plusieurs fossiles. Le premier fossile a été découvert en Italie par Mario Pandolfi en 1973, plus tard un fossile complet a été découvert en Autriche, une mâchoire au Texas, des dents, attribués à ce genre, au Luxembourg. Ce sont les plus anciens fossiles de ptérosaures connus en 2009. L'espèce a disparu au début de l'extinction du Trias-Jurassique.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa mâchoire montre une spécialisation, elle est particulièrement adaptée à la capture des poissons confirmée par la découverte de la présence de poisson du genre Parapholidophorus dans l'estomac d'un des fossiles. Son crâne diapside et pointu dispose d'un large espace crânien et d'orbites volumineuses. Il possédait plus d'une centaine de dents dont certaines à l'arrière de la mâchoire ont plus de cinq cuspides[2], les dents de devant sont particulièrement longues, acérées et portées vers l'avant. Il devait mesurer adulte entre 75 cm et 1 mètre d'envergure. Sa longue queue, renforcée de baguettes osseuses, se termine par une sorte de membrane en forme de losange comme d'autres Rhamphorhynchoidea. Les fossiles attribués à des juvéniles montrent en revanche des caractéristiques d'insectivores. Le bassin est supporté par plusieurs vertèbres fusionnées. Ils disposent des autres caractéristiques des ptérosaures permettant le vol actif.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa mâchoire montre une spécialisation, elle est particulièrement adaptée à la capture des poissons confirmée par la découverte de la présence de poisson du genre Parapholidophorus dans l'estomac d'un des fossiles. Son crâne diapside et pointu dispose d'un large espace crânien et d'orbites volumineuses. Il possédait plus d'une centaine de dents dont certaines à l'arrière de la mâchoire ont plus de cinq cuspides, les dents de devant sont particulièrement longues, acérées et portées vers l'avant. Il devait mesurer adulte entre 75 cm et 1 mètre d'envergure. Sa longue queue, renforcée de baguettes osseuses, se termine par une sorte de membrane en forme de losange comme d'autres Rhamphorhynchoidea. Les fossiles attribués à des juvéniles montrent en revanche des caractéristiques d'insectivores. Le bassin est supporté par plusieurs vertèbres fusionnées. Ils disposent des autres caractéristiques des ptérosaures permettant le vol actif.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Étymologie, Taxonomie et classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Eudimorphodon a été formé à partir de termes de grec ancien, il peut se traduire par « vrai dimorphodonte » c'est-à-dire par « à la vraie double morphologie dentaire ». Le spécimen type est E. ranzii décrit par Zambelli.
-Ces fossiles disposent de caractéristiques dites reptiliennes qui semblent primitives et qui les rapprochent des autres archosaures, ce qui rend ces fossiles importants pour la classification. Par exemple, les dents multicuspides typiques d'autres ordres de reptiles ne se retrouvent pas chez les autres lignées de ptérosaures dont ceux du Jurassique. Cela permet de supposer que cette lignée est une branche qui s'est assez tôt différenciée de celle qui allait engendrer le plus grand nombre d'espèces de ptérosaures[2].
+Ces fossiles disposent de caractéristiques dites reptiliennes qui semblent primitives et qui les rapprochent des autres archosaures, ce qui rend ces fossiles importants pour la classification. Par exemple, les dents multicuspides typiques d'autres ordres de reptiles ne se retrouvent pas chez les autres lignées de ptérosaures dont ceux du Jurassique. Cela permet de supposer que cette lignée est une branche qui s'est assez tôt différenciée de celle qui allait engendrer le plus grand nombre d'espèces de ptérosaures.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">† Eudimorphodon ranzii Zambelli, 1973
 † Eudimorphodon rosenfeldi Dalla Vecchia, 1995
@@ -610,6 +628,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
